--- a/Cronograma Projeto.xlsx
+++ b/Cronograma Projeto.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t xml:space="preserve">                 CRONOGRAMA DO SISTEMA WEB DE REPORTAMENTO DE PROBLEMA S ESTRUTURAIS EM RECIFE </t>
+    <t xml:space="preserve">                 CRONOGRAMA DO SISTEMA WEB DE REPORTAMENTO DE PROBLEMAS ESTRUTURAIS EM RECIFE </t>
   </si>
   <si>
     <t>ATIVIDADES</t>
@@ -50,32 +50,34 @@
     <t>15/dez</t>
   </si>
   <si>
-    <t>Reunião inicial e configuração do ambiente + git</t>
+    <t>Reunião inicial e configuração do ambiente + git (Alberto, Vinícius, Matheus)</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrega do Cronograma </t>
+    <t>Entrega do Cronograma (Alberto)</t>
   </si>
   <si>
     <t>Protótipo e identidade visual (Figma)+base Html/css
-+ estrutura base do projeto + base de dados (MySQL)</t>
++ estrutura base do projeto + base de dados (MySQL) 
+(Alberto, Matheus)</t>
   </si>
   <si>
-    <t>Implementação de entidades e autenticação</t>
+    <t>layout da Página (Alberto, Vinícius)</t>
   </si>
   <si>
-    <t>Telas de Login e Registro + integração ao beck-end</t>
+    <t>Telas de Login e Registro + integração ao beck-end 
+(Matheus, Alberto)</t>
   </si>
   <si>
-    <t>CRUD de problemas e soluções</t>
+    <t>CRUD de problemas e soluções (Alberto, Vinícius)</t>
   </si>
   <si>
-    <t>Front-end do CRUD + integração completa</t>
+    <t>Front-end do CRUD + integração completa (Matheus,Vinícius, Alberto)</t>
   </si>
   <si>
-    <t>Dashboard Admin e testes gerais</t>
+    <t>Dashboard Admin e testes gerais (Matheus,Vinícius, Alberto)</t>
   </si>
   <si>
-    <t>Relatórios, documentação e apresentação final</t>
+    <t>Relatórios, documentação e apresentação final (Matheus,Vinícius, Alberto)</t>
   </si>
 </sst>
 </file>
@@ -475,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -590,6 +592,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -713,7 +765,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,34 +777,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,19 +920,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +967,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1452,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:EP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2372,7 +2436,7 @@
       <c r="EO6" s="20"/>
       <c r="EP6" s="20"/>
     </row>
-    <row r="7" ht="15" spans="1:146">
+    <row r="7" ht="30" spans="1:146">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="10" t="s">
@@ -2525,11 +2589,11 @@
     <row r="8" ht="15" spans="1:146">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -2672,15 +2736,15 @@
       <c r="EO8" s="20"/>
       <c r="EP8" s="20"/>
     </row>
-    <row r="9" ht="30" spans="1:146">
+    <row r="9" ht="45" spans="1:146">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -2825,13 +2889,13 @@
     <row r="10" ht="15" spans="1:146">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -2972,7 +3036,7 @@
       <c r="EO10" s="20"/>
       <c r="EP10" s="20"/>
     </row>
-    <row r="11" ht="15" spans="1:146">
+    <row r="11" ht="30" spans="1:146">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="10" t="s">
@@ -3125,7 +3189,7 @@
     <row r="12" ht="15" spans="1:146">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="12"/>
@@ -3272,7 +3336,7 @@
       <c r="EO12" s="20"/>
       <c r="EP12" s="20"/>
     </row>
-    <row r="13" ht="15" spans="1:146">
+    <row r="13" ht="30" spans="1:146">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
@@ -3422,7 +3486,7 @@
       <c r="EO13" s="20"/>
       <c r="EP13" s="20"/>
     </row>
-    <row r="14" ht="15" spans="1:146">
+    <row r="14" ht="30" spans="1:146">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="10" t="s">
@@ -3572,7 +3636,7 @@
       <c r="EO14" s="20"/>
       <c r="EP14" s="20"/>
     </row>
-    <row r="15" ht="15" spans="1:146">
+    <row r="15" ht="30" spans="1:146">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="10" t="s">
@@ -3598,7 +3662,7 @@
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
+      <c r="X15" s="27"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
@@ -3746,8 +3810,8 @@
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="30"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
@@ -3894,8 +3958,8 @@
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="30"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
